--- a/Fight The Landlord/斗地主规则.xlsx
+++ b/Fight The Landlord/斗地主规则.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{89FD56DF-3725-4B4D-A3C0-26BDBC2D893B}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692771C1-80D2-4A94-B0F2-3807D2FD7226}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="54">
   <si>
     <t>牌型</t>
   </si>
@@ -186,6 +186,30 @@
   </si>
   <si>
     <t>数组</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple with double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>fourfold with double</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>single straight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>pair straight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>triple straight</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>plane</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -561,7 +585,7 @@
   <dimension ref="A1:D13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -569,7 +593,7 @@
     <col min="1" max="1" width="11.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="93.6640625" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.5546875" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="16.109375" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="19.77734375" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="16384" width="8.88671875" style="2"/>
   </cols>
   <sheetData>
@@ -681,6 +705,9 @@
       <c r="C8" s="2">
         <v>5</v>
       </c>
+      <c r="D8" s="2" t="s">
+        <v>48</v>
+      </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
@@ -692,6 +719,9 @@
       <c r="C9" s="2">
         <v>6</v>
       </c>
+      <c r="D9" s="2" t="s">
+        <v>49</v>
+      </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
@@ -703,6 +733,9 @@
       <c r="C10" s="2" t="s">
         <v>27</v>
       </c>
+      <c r="D10" s="2" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
@@ -714,6 +747,9 @@
       <c r="C11" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D11" s="2" t="s">
+        <v>51</v>
+      </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
@@ -725,6 +761,9 @@
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
+      <c r="D12" s="2" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
@@ -735,6 +774,9 @@
       </c>
       <c r="C13" s="2" t="s">
         <v>29</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>53</v>
       </c>
     </row>
   </sheetData>
@@ -751,9 +793,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451BE394-F20A-4C0B-A1B6-6C16AA4F0C4C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K7" sqref="K7"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>

--- a/Fight The Landlord/斗地主规则.xlsx
+++ b/Fight The Landlord/斗地主规则.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20827"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{692771C1-80D2-4A94-B0F2-3807D2FD7226}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{71587C2F-97FC-462E-B491-AA28A53BDB3E}" xr6:coauthVersionLast="37" xr6:coauthVersionMax="37" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -201,15 +201,15 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>pair straight</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>triple straight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>plane</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>double straight</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -582,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D13"/>
+  <dimension ref="A1:D14"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -696,91 +696,96 @@
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A8" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C8" s="2">
-        <v>5</v>
-      </c>
-      <c r="D8" s="2" t="s">
-        <v>48</v>
-      </c>
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="5"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>24</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>25</v>
+        <v>15</v>
       </c>
       <c r="C9" s="2">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>16</v>
+        <v>24</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>27</v>
+        <v>25</v>
+      </c>
+      <c r="C10" s="2">
+        <v>6</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>28</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B13" s="1" t="s">
+      <c r="B14" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="2" t="s">
+      <c r="C14" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>53</v>
+      <c r="D14" s="2" t="s">
+        <v>52</v>
       </c>
     </row>
   </sheetData>
-  <sortState ref="A2:C13">
+  <sortState ref="A2:C14">
     <sortCondition ref="C1"/>
   </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
@@ -793,7 +798,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{451BE394-F20A-4C0B-A1B6-6C16AA4F0C4C}">
   <dimension ref="A1:C16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
